--- a/public/files/mau-them-danh-sach-cau-hoi.xlsx
+++ b/public/files/mau-them-danh-sach-cau-hoi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tno\resource\res\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\oes-mvc\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78EDDBC-EB58-4F94-9850-CAF7E14923C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Unknown</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text/>
     </comment>
   </commentList>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>MẪU DANH SÁCH CÂU HỎI - HỆ THỐNG TRẮC NGHIỆM ONLINE</t>
   </si>
@@ -90,11 +91,17 @@
   <si>
     <t>Chương</t>
   </si>
+  <si>
+    <t>Chi Tiết Đáp Án</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -240,6 +247,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -275,6 +299,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,31 +491,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -482,7 +524,7 @@
       <c r="C2"/>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -505,13 +547,16 @@
         <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -533,14 +578,17 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>1</v>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -562,14 +610,17 @@
       <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F6" s="3"/>
     </row>
   </sheetData>
